--- a/data/trans_orig/LAWTONBRODY-Edad-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONBRODY-Edad-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>7.517435495766436</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>7.460124326490593</v>
+        <v>7.460124326490595</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.328457789655088</v>
+        <v>7.331021299344348</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.145068330617286</v>
+        <v>7.141181872228875</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.452318760537365</v>
+        <v>7.43722629063361</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.446426825503666</v>
+        <v>7.447971529934925</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.148345757175505</v>
+        <v>7.144879284586175</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.910662886823283</v>
+        <v>6.911428220601384</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.252544355605226</v>
+        <v>7.241340348984478</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.231953986578827</v>
+        <v>7.226076909155607</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.291023118873149</v>
+        <v>7.292149230393509</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7.096157613716933</v>
+        <v>7.104598645647879</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7.395841456699924</v>
+        <v>7.405771980370855</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>7.376130289996126</v>
+        <v>7.37756418637952</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.659887583815979</v>
+        <v>7.658464972610746</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.571429454457069</v>
+        <v>7.590971494977569</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.758053316112989</v>
+        <v>7.739219438810753</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.665639044319385</v>
+        <v>7.667092454689563</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.487149938904211</v>
+        <v>7.501295696184241</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.333001740014985</v>
+        <v>7.348469094712928</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.549329878718481</v>
+        <v>7.54620902472722</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.472176878388735</v>
+        <v>7.463018780134755</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.529094598343426</v>
+        <v>7.535932116336839</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7.403652472480725</v>
+        <v>7.404417925522305</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7.609169068362539</v>
+        <v>7.613011050627052</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>7.534878624835687</v>
+        <v>7.539308309553028</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>6.57824243178538</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.337759710581983</v>
+        <v>6.337759710581982</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>6.2731801687147</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.254399277256579</v>
+        <v>6.278343498997244</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.611214463154543</v>
+        <v>5.623596261460035</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.30700038159556</v>
+        <v>6.310827028140917</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.098300234236707</v>
+        <v>6.102607167486296</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.983402982182175</v>
+        <v>5.996401854323435</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>5.165100758918705</v>
+        <v>5.191683550120228</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>5.608019412155947</v>
+        <v>5.623730197168256</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>5.079898725054396</v>
+        <v>5.083787177937446</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>6.177533659179566</v>
+        <v>6.172525976907207</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5.428638118881386</v>
+        <v>5.427375313789215</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5.957075962683075</v>
+        <v>5.951713163246476</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>5.539537379804713</v>
+        <v>5.528104288394541</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.856228503720056</v>
+        <v>6.865536276956699</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.362821206723551</v>
+        <v>6.386790517768569</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.836756047719183</v>
+        <v>6.831867375706842</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.559967309138258</v>
+        <v>6.560269639416668</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>6.524208932779921</v>
+        <v>6.518338394213372</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>5.789806698204385</v>
+        <v>5.783603197968254</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>6.176382238398665</v>
+        <v>6.22751008005128</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>5.460537420044056</v>
+        <v>5.460844805052257</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>6.585909093054188</v>
+        <v>6.597509424117523</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5.935598793374121</v>
+        <v>5.948398166665136</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6.37776133804913</v>
+        <v>6.368860230017983</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>5.852556469012496</v>
+        <v>5.842179011365784</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>7.140241043362948</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.00178788220316</v>
+        <v>7.001787882203161</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>6.77032590222096</v>
@@ -953,7 +953,7 @@
         <v>6.5995494712418</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>6.214887074623242</v>
+        <v>6.214887074623241</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>6.910563450043422</v>
@@ -965,7 +965,7 @@
         <v>6.833517160263962</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>6.563050952957235</v>
+        <v>6.563050952957236</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.920300501841984</v>
+        <v>6.921834965892019</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.507527577340699</v>
+        <v>6.496929798082591</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.9723589641269</v>
+        <v>6.987010557541403</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.861457433317761</v>
+        <v>6.871284285743648</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6.596490902418055</v>
+        <v>6.584116242425157</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.016779445333118</v>
+        <v>6.005919774520363</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.406761147305667</v>
+        <v>6.385641150376744</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>6.071840691696866</v>
+        <v>6.072880851685341</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.785330253994569</v>
+        <v>6.779519808285861</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6.279036875928104</v>
+        <v>6.295198557892255</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6.712155898032353</v>
+        <v>6.699099403102519</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6.466029149270624</v>
+        <v>6.467155955475945</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.260481028031231</v>
+        <v>7.255228237955756</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.935394011467467</v>
+        <v>6.936997267089422</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.287453239213942</v>
+        <v>7.272845838010008</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.126831894986861</v>
+        <v>7.125174978061825</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.941260349355099</v>
+        <v>6.935273451414919</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.440915555543269</v>
+        <v>6.425912089245948</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.785971420896985</v>
+        <v>6.770350964716208</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.339575756947885</v>
+        <v>6.350637800206297</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.018597804113337</v>
+        <v>7.025353790327965</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6.582371102490175</v>
+        <v>6.601056889422228</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6.954963101998346</v>
+        <v>6.948197003050374</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>6.658505575290582</v>
+        <v>6.645774820050454</v>
       </c>
     </row>
     <row r="13">
